--- a/src/社協等リンク集.xlsx
+++ b/src/社協等リンク集.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="194">
   <si>
     <t>団体コード</t>
   </si>
@@ -22,6 +22,9 @@
     <t>市区町村名</t>
   </si>
   <si>
+    <t>災害救助法適用</t>
+  </si>
+  <si>
     <t>石川地震によるボランティアセンター開設・開設準備</t>
   </si>
   <si>
@@ -563,13 +566,40 @@
   </si>
   <si>
     <t>https://www.f-shakyo.or.jp/</t>
+  </si>
+  <si>
+    <t>福井市</t>
+  </si>
+  <si>
+    <t>https://www.city.fukui.lg.jp/</t>
+  </si>
+  <si>
+    <t>http://www.fukuic-shakyo.jp/</t>
+  </si>
+  <si>
+    <t>あわら市</t>
+  </si>
+  <si>
+    <t>https://www.city.awara.lg.jp/</t>
+  </si>
+  <si>
+    <t>http://awara-shakyo.or.jp/</t>
+  </si>
+  <si>
+    <t>坂井市</t>
+  </si>
+  <si>
+    <t>https://www.city.fukui-sakai.lg.jp/</t>
+  </si>
+  <si>
+    <t>http://www.sakaicityshakyo.jp/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -593,22 +623,60 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
     </font>
+    <font>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF2955A7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2955A7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2955A7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2955A7"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -627,6 +695,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -845,11 +926,11 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.13"/>
     <col customWidth="1" min="2" max="2" width="9.25"/>
-    <col customWidth="1" min="4" max="4" width="6.5"/>
-    <col customWidth="1" min="5" max="5" width="41.13"/>
-    <col customWidth="1" min="6" max="6" width="39.0"/>
-    <col customWidth="1" min="7" max="7" width="61.88"/>
-    <col customWidth="1" min="8" max="8" width="34.13"/>
+    <col customWidth="1" min="4" max="5" width="6.5"/>
+    <col customWidth="1" min="6" max="6" width="41.13"/>
+    <col customWidth="1" min="7" max="7" width="39.0"/>
+    <col customWidth="1" min="8" max="8" width="61.88"/>
+    <col customWidth="1" min="9" max="9" width="34.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -876,6 +957,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -885,157 +969,164 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
         <v>150002.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
         <v>151009.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
         <v>151017.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
         <v>151025.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
         <v>151033.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
         <v>151041.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
         <v>151050.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>151068.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
         <v>151076.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1044,597 +1135,634 @@
       <c r="G11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
         <v>151084.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>152021.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
         <v>152048.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
         <v>152056.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
         <v>152064.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
         <v>152081.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
         <v>152099.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>152102.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>152111.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
         <v>152129.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>152137.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>152161.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>152170.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>152188.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>152226.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>152234.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>152242.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>152251.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>152269.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>152277.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="4">
         <v>153079.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="4">
         <v>153427.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="4">
         <v>153613.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="4">
         <v>153851.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="4">
         <v>154059.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="4">
         <v>154610.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="4">
         <v>154822.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="4">
         <v>155047.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="4">
         <v>155811.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="4">
         <v>155861.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="4">
         <v>160008.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="4">
         <v>162019.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="4">
         <v>162027.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>91</v>
@@ -1642,41 +1770,45 @@
       <c r="G44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="4">
         <v>162043.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="4">
         <v>162051.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>96</v>
+        <v>22</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>97</v>
@@ -1684,274 +1816,315 @@
       <c r="G46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="4">
         <v>162060.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="4">
         <v>162078.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="4">
         <v>162086.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="4">
         <v>162094.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="4">
         <v>162108.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="4">
         <v>162116.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G52" s="2"/>
+      <c r="G52" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="4">
         <v>163210.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="4">
         <v>163228.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="4">
         <v>163236.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="4">
         <v>163422.0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="4">
         <v>163431.0</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="4">
         <v>170003.0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="2"/>
+      <c r="H58" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="4">
         <v>172014.0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="D59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="4">
         <v>172022.0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>130</v>
+        <v>22</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="61">
@@ -1959,41 +2132,47 @@
         <v>172031.0</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="4">
         <v>172049.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>136</v>
+        <v>22</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>138</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -2001,16 +2180,16 @@
         <v>172057.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>140</v>
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>141</v>
@@ -2018,23 +2197,26 @@
       <c r="G63" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="4">
         <v>172065.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>144</v>
+        <v>22</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>145</v>
@@ -2042,23 +2224,26 @@
       <c r="G64" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H64" s="2"/>
+      <c r="H64" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="4">
         <v>172073.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>149</v>
@@ -2066,155 +2251,175 @@
       <c r="G65" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="4">
         <v>172090.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="4">
         <v>172103.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="4">
         <v>172111.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="4">
         <v>172120.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="4">
         <v>173240.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="4">
         <v>173614.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="D71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="4">
         <v>173657.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>165</v>
+        <v>22</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="4">
         <v>173843.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>168</v>
+        <v>22</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>169</v>
@@ -2222,208 +2427,292 @@
       <c r="G73" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H73" s="2"/>
+      <c r="H73" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="4">
         <v>173860.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>172</v>
+        <v>22</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="4">
         <v>174076.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="D75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="2"/>
       <c r="F75" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="4">
         <v>174611.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F76" s="2"/>
+      <c r="D76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="4">
         <v>174637.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>180</v>
+        <v>22</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="4">
         <v>180009.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2"/>
+      <c r="G78" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="6">
+        <v>182010.0</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="C79" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="6">
+        <v>182087.0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9">
+        <v>182109.0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="F3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="F4"/>
-    <hyperlink r:id="rId5" ref="E11"/>
-    <hyperlink r:id="rId6" ref="F11"/>
-    <hyperlink r:id="rId7" ref="G11"/>
-    <hyperlink r:id="rId8" ref="F13"/>
-    <hyperlink r:id="rId9" ref="F14"/>
-    <hyperlink r:id="rId10" ref="F15"/>
-    <hyperlink r:id="rId11" ref="F16"/>
-    <hyperlink r:id="rId12" ref="F17"/>
-    <hyperlink r:id="rId13" ref="F18"/>
-    <hyperlink r:id="rId14" ref="F19"/>
-    <hyperlink r:id="rId15" ref="F20"/>
-    <hyperlink r:id="rId16" ref="F21"/>
-    <hyperlink r:id="rId17" ref="F22"/>
-    <hyperlink r:id="rId18" ref="F23"/>
-    <hyperlink r:id="rId19" ref="F24"/>
-    <hyperlink r:id="rId20" ref="F25"/>
-    <hyperlink r:id="rId21" ref="F26"/>
-    <hyperlink r:id="rId22" ref="F27"/>
-    <hyperlink r:id="rId23" ref="F28"/>
-    <hyperlink r:id="rId24" ref="F29"/>
-    <hyperlink r:id="rId25" ref="F30"/>
-    <hyperlink r:id="rId26" ref="F31"/>
-    <hyperlink r:id="rId27" ref="F32"/>
-    <hyperlink r:id="rId28" ref="F33"/>
-    <hyperlink r:id="rId29" ref="F34"/>
-    <hyperlink r:id="rId30" ref="F35"/>
-    <hyperlink r:id="rId31" ref="F36"/>
-    <hyperlink r:id="rId32" ref="F37"/>
-    <hyperlink r:id="rId33" ref="F38"/>
-    <hyperlink r:id="rId34" ref="F39"/>
-    <hyperlink r:id="rId35" ref="F40"/>
-    <hyperlink r:id="rId36" ref="F42"/>
-    <hyperlink r:id="rId37" ref="E43"/>
-    <hyperlink r:id="rId38" ref="F43"/>
-    <hyperlink r:id="rId39" ref="G43"/>
-    <hyperlink r:id="rId40" ref="E44"/>
-    <hyperlink r:id="rId41" ref="F44"/>
-    <hyperlink r:id="rId42" ref="G44"/>
-    <hyperlink r:id="rId43" ref="F45"/>
-    <hyperlink r:id="rId44" ref="E46"/>
-    <hyperlink r:id="rId45" ref="F46"/>
-    <hyperlink r:id="rId46" ref="G46"/>
-    <hyperlink r:id="rId47" ref="F48"/>
-    <hyperlink r:id="rId48" ref="E49"/>
-    <hyperlink r:id="rId49" ref="F49"/>
-    <hyperlink r:id="rId50" ref="E50"/>
-    <hyperlink r:id="rId51" ref="F50"/>
-    <hyperlink r:id="rId52" ref="F51"/>
-    <hyperlink r:id="rId53" ref="E52"/>
-    <hyperlink r:id="rId54" ref="F52"/>
-    <hyperlink r:id="rId55" ref="F53"/>
-    <hyperlink r:id="rId56" ref="F54"/>
-    <hyperlink r:id="rId57" ref="F55"/>
-    <hyperlink r:id="rId58" ref="F56"/>
-    <hyperlink r:id="rId59" ref="F57"/>
-    <hyperlink r:id="rId60" ref="F58"/>
-    <hyperlink r:id="rId61" ref="G58"/>
-    <hyperlink r:id="rId62" ref="E59"/>
-    <hyperlink r:id="rId63" ref="F59"/>
-    <hyperlink r:id="rId64" ref="E60"/>
-    <hyperlink r:id="rId65" ref="F60"/>
-    <hyperlink r:id="rId66" ref="H60"/>
-    <hyperlink r:id="rId67" ref="F61"/>
-    <hyperlink r:id="rId68" ref="E62"/>
-    <hyperlink r:id="rId69" ref="F62"/>
-    <hyperlink r:id="rId70" ref="H62"/>
-    <hyperlink r:id="rId71" ref="E63"/>
-    <hyperlink r:id="rId72" ref="F63"/>
-    <hyperlink r:id="rId73" ref="G63"/>
-    <hyperlink r:id="rId74" ref="E64"/>
-    <hyperlink r:id="rId75" ref="F64"/>
-    <hyperlink r:id="rId76" ref="G64"/>
-    <hyperlink r:id="rId77" ref="E65"/>
-    <hyperlink r:id="rId78" ref="F65"/>
-    <hyperlink r:id="rId79" ref="G65"/>
-    <hyperlink r:id="rId80" ref="E66"/>
-    <hyperlink r:id="rId81" ref="F66"/>
-    <hyperlink r:id="rId82" ref="F67"/>
-    <hyperlink r:id="rId83" ref="F68"/>
-    <hyperlink r:id="rId84" ref="F69"/>
-    <hyperlink r:id="rId85" ref="E71"/>
-    <hyperlink r:id="rId86" ref="F71"/>
-    <hyperlink r:id="rId87" ref="E72"/>
-    <hyperlink r:id="rId88" ref="F72"/>
-    <hyperlink r:id="rId89" ref="E73"/>
-    <hyperlink r:id="rId90" ref="F73"/>
-    <hyperlink r:id="rId91" ref="G73"/>
-    <hyperlink r:id="rId92" ref="E74"/>
-    <hyperlink r:id="rId93" ref="F74"/>
-    <hyperlink r:id="rId94" ref="E75"/>
-    <hyperlink r:id="rId95" ref="F75"/>
-    <hyperlink r:id="rId96" ref="E76"/>
-    <hyperlink r:id="rId97" ref="E77"/>
-    <hyperlink r:id="rId98" ref="F77"/>
-    <hyperlink r:id="rId99" ref="E78"/>
+    <hyperlink r:id="rId1" ref="H2"/>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="G4"/>
+    <hyperlink r:id="rId5" ref="F11"/>
+    <hyperlink r:id="rId6" ref="G11"/>
+    <hyperlink r:id="rId7" ref="H11"/>
+    <hyperlink r:id="rId8" ref="G13"/>
+    <hyperlink r:id="rId9" ref="G14"/>
+    <hyperlink r:id="rId10" ref="G15"/>
+    <hyperlink r:id="rId11" ref="G16"/>
+    <hyperlink r:id="rId12" ref="G17"/>
+    <hyperlink r:id="rId13" ref="G18"/>
+    <hyperlink r:id="rId14" ref="G19"/>
+    <hyperlink r:id="rId15" ref="G20"/>
+    <hyperlink r:id="rId16" ref="G21"/>
+    <hyperlink r:id="rId17" ref="G22"/>
+    <hyperlink r:id="rId18" ref="G23"/>
+    <hyperlink r:id="rId19" ref="G24"/>
+    <hyperlink r:id="rId20" ref="G25"/>
+    <hyperlink r:id="rId21" ref="G26"/>
+    <hyperlink r:id="rId22" ref="G27"/>
+    <hyperlink r:id="rId23" ref="G28"/>
+    <hyperlink r:id="rId24" ref="G29"/>
+    <hyperlink r:id="rId25" ref="G30"/>
+    <hyperlink r:id="rId26" ref="G31"/>
+    <hyperlink r:id="rId27" ref="G32"/>
+    <hyperlink r:id="rId28" ref="G33"/>
+    <hyperlink r:id="rId29" ref="G34"/>
+    <hyperlink r:id="rId30" ref="G35"/>
+    <hyperlink r:id="rId31" ref="G36"/>
+    <hyperlink r:id="rId32" ref="G37"/>
+    <hyperlink r:id="rId33" ref="G38"/>
+    <hyperlink r:id="rId34" ref="G39"/>
+    <hyperlink r:id="rId35" ref="G40"/>
+    <hyperlink r:id="rId36" ref="G42"/>
+    <hyperlink r:id="rId37" ref="F43"/>
+    <hyperlink r:id="rId38" ref="G43"/>
+    <hyperlink r:id="rId39" ref="H43"/>
+    <hyperlink r:id="rId40" ref="F44"/>
+    <hyperlink r:id="rId41" ref="G44"/>
+    <hyperlink r:id="rId42" ref="H44"/>
+    <hyperlink r:id="rId43" ref="G45"/>
+    <hyperlink r:id="rId44" ref="F46"/>
+    <hyperlink r:id="rId45" ref="G46"/>
+    <hyperlink r:id="rId46" ref="H46"/>
+    <hyperlink r:id="rId47" ref="G48"/>
+    <hyperlink r:id="rId48" ref="F49"/>
+    <hyperlink r:id="rId49" ref="G49"/>
+    <hyperlink r:id="rId50" ref="F50"/>
+    <hyperlink r:id="rId51" ref="G50"/>
+    <hyperlink r:id="rId52" ref="G51"/>
+    <hyperlink r:id="rId53" ref="F52"/>
+    <hyperlink r:id="rId54" ref="G52"/>
+    <hyperlink r:id="rId55" ref="G53"/>
+    <hyperlink r:id="rId56" ref="G54"/>
+    <hyperlink r:id="rId57" ref="G55"/>
+    <hyperlink r:id="rId58" ref="G56"/>
+    <hyperlink r:id="rId59" ref="G57"/>
+    <hyperlink r:id="rId60" ref="G58"/>
+    <hyperlink r:id="rId61" ref="H58"/>
+    <hyperlink r:id="rId62" ref="F59"/>
+    <hyperlink r:id="rId63" ref="G59"/>
+    <hyperlink r:id="rId64" ref="F60"/>
+    <hyperlink r:id="rId65" ref="G60"/>
+    <hyperlink r:id="rId66" ref="I60"/>
+    <hyperlink r:id="rId67" ref="G61"/>
+    <hyperlink r:id="rId68" ref="F62"/>
+    <hyperlink r:id="rId69" ref="G62"/>
+    <hyperlink r:id="rId70" ref="I62"/>
+    <hyperlink r:id="rId71" ref="F63"/>
+    <hyperlink r:id="rId72" ref="G63"/>
+    <hyperlink r:id="rId73" ref="H63"/>
+    <hyperlink r:id="rId74" ref="F64"/>
+    <hyperlink r:id="rId75" ref="G64"/>
+    <hyperlink r:id="rId76" ref="H64"/>
+    <hyperlink r:id="rId77" ref="F65"/>
+    <hyperlink r:id="rId78" ref="G65"/>
+    <hyperlink r:id="rId79" ref="H65"/>
+    <hyperlink r:id="rId80" ref="F66"/>
+    <hyperlink r:id="rId81" ref="G66"/>
+    <hyperlink r:id="rId82" ref="G67"/>
+    <hyperlink r:id="rId83" ref="G68"/>
+    <hyperlink r:id="rId84" ref="G69"/>
+    <hyperlink r:id="rId85" ref="F71"/>
+    <hyperlink r:id="rId86" ref="G71"/>
+    <hyperlink r:id="rId87" ref="F72"/>
+    <hyperlink r:id="rId88" ref="G72"/>
+    <hyperlink r:id="rId89" ref="F73"/>
+    <hyperlink r:id="rId90" ref="G73"/>
+    <hyperlink r:id="rId91" ref="H73"/>
+    <hyperlink r:id="rId92" ref="F74"/>
+    <hyperlink r:id="rId93" ref="G74"/>
+    <hyperlink r:id="rId94" ref="F75"/>
+    <hyperlink r:id="rId95" ref="G75"/>
+    <hyperlink r:id="rId96" ref="F76"/>
+    <hyperlink r:id="rId97" ref="F77"/>
+    <hyperlink r:id="rId98" ref="G77"/>
+    <hyperlink r:id="rId99" ref="G78"/>
+    <hyperlink r:id="rId100" ref="F79"/>
+    <hyperlink r:id="rId101" ref="G79"/>
+    <hyperlink r:id="rId102" ref="F80"/>
+    <hyperlink r:id="rId103" ref="G80"/>
+    <hyperlink r:id="rId104" ref="F81"/>
+    <hyperlink r:id="rId105" ref="G81"/>
   </hyperlinks>
-  <drawing r:id="rId100"/>
+  <drawing r:id="rId106"/>
 </worksheet>
 </file>